--- a/Styring_et_al_HazelnutData.xlsx
+++ b/Styring_et_al_HazelnutData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/arch0355_ox_ac_uk/Documents/RESEARCH PROJECTS/Hazelnut Pilot/Paper/Hazelnut-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioxfordnexus-my.sharepoint.com/personal/arch0355_ox_ac_uk/Documents/RESEARCH PROJECTS/Hazelnut Pilot/Paper/Submission/Hazelnut-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{01EF1C4D-9EEB-AE44-969F-25325E47B24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADE1F4F8-CE8F-4848-BA8B-7B5C828D339E}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{01EF1C4D-9EEB-AE44-969F-25325E47B24C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A7FF88C-5CD7-6148-8F05-8D1C6D02C86E}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="29320" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13700" yWindow="500" windowWidth="29320" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2206" uniqueCount="404">
   <si>
     <t>SampleID</t>
   </si>
@@ -259,9 +259,6 @@
     <t>D2</t>
   </si>
   <si>
-    <t>D10</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
     <t>D3</t>
   </si>
   <si>
-    <t>D11</t>
-  </si>
-  <si>
     <t>Semi-open</t>
   </si>
   <si>
@@ -289,36 +283,24 @@
     <t>D-12-1</t>
   </si>
   <si>
-    <t>D12</t>
-  </si>
-  <si>
     <t>D-3-3</t>
   </si>
   <si>
     <t>D-13-1</t>
   </si>
   <si>
-    <t>D13</t>
-  </si>
-  <si>
     <t>D-3-4</t>
   </si>
   <si>
     <t>D-14-1</t>
   </si>
   <si>
-    <t>D14</t>
-  </si>
-  <si>
     <t>D-3-5</t>
   </si>
   <si>
     <t>D-15-1</t>
   </si>
   <si>
-    <t>D15</t>
-  </si>
-  <si>
     <t>D-2-1</t>
   </si>
   <si>
@@ -376,27 +358,15 @@
     <t>D-6-1</t>
   </si>
   <si>
-    <t>D6</t>
-  </si>
-  <si>
     <t>D-7-1</t>
   </si>
   <si>
-    <t>D7</t>
-  </si>
-  <si>
     <t>D-8-1</t>
   </si>
   <si>
-    <t>D8</t>
-  </si>
-  <si>
     <t>D-9-1</t>
   </si>
   <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>D22_1-1</t>
   </si>
   <si>
@@ -427,9 +397,6 @@
     <t>D22_11-1</t>
   </si>
   <si>
-    <t>D22_11</t>
-  </si>
-  <si>
     <t>230531</t>
   </si>
   <si>
@@ -442,21 +409,12 @@
     <t>D22_8</t>
   </si>
   <si>
-    <t>D22_12</t>
-  </si>
-  <si>
     <t>D22_13-1</t>
   </si>
   <si>
-    <t>D22_13</t>
-  </si>
-  <si>
     <t>D22_14-1</t>
   </si>
   <si>
-    <t>D22_14</t>
-  </si>
-  <si>
     <t>D22_9-1</t>
   </si>
   <si>
@@ -466,33 +424,18 @@
     <t>D22_9</t>
   </si>
   <si>
-    <t>D22_15</t>
-  </si>
-  <si>
     <t>D22_16-1</t>
   </si>
   <si>
-    <t>D22_16</t>
-  </si>
-  <si>
     <t>D22_17-1</t>
   </si>
   <si>
-    <t>D22_17</t>
-  </si>
-  <si>
     <t>D22_18-1</t>
   </si>
   <si>
-    <t>D22_18</t>
-  </si>
-  <si>
     <t>D22_19-1</t>
   </si>
   <si>
-    <t>D22_19</t>
-  </si>
-  <si>
     <t>D22_2-1</t>
   </si>
   <si>
@@ -508,9 +451,6 @@
     <t>D22_20-1</t>
   </si>
   <si>
-    <t>D22_20</t>
-  </si>
-  <si>
     <t>D22_3-1</t>
   </si>
   <si>
@@ -571,15 +511,9 @@
     <t>H3</t>
   </si>
   <si>
-    <t>H10</t>
-  </si>
-  <si>
     <t>H-11-1</t>
   </si>
   <si>
-    <t>H11</t>
-  </si>
-  <si>
     <t>H-4-1</t>
   </si>
   <si>
@@ -589,33 +523,18 @@
     <t>H4</t>
   </si>
   <si>
-    <t>H12</t>
-  </si>
-  <si>
     <t>H-13-1</t>
   </si>
   <si>
-    <t>H13</t>
-  </si>
-  <si>
     <t>H-14-1</t>
   </si>
   <si>
-    <t>H14</t>
-  </si>
-  <si>
     <t>H-15-1</t>
   </si>
   <si>
-    <t>H15</t>
-  </si>
-  <si>
     <t>H-16-1</t>
   </si>
   <si>
-    <t>H16</t>
-  </si>
-  <si>
     <t>H-5-1</t>
   </si>
   <si>
@@ -625,21 +544,12 @@
     <t>H5</t>
   </si>
   <si>
-    <t>H17</t>
-  </si>
-  <si>
     <t>H-18-1</t>
   </si>
   <si>
-    <t>H18</t>
-  </si>
-  <si>
     <t>H-19-1</t>
   </si>
   <si>
-    <t>H19</t>
-  </si>
-  <si>
     <t>H-2-1</t>
   </si>
   <si>
@@ -649,15 +559,9 @@
     <t>H-20-1</t>
   </si>
   <si>
-    <t>H20</t>
-  </si>
-  <si>
     <t>H-21-1</t>
   </si>
   <si>
-    <t>H21</t>
-  </si>
-  <si>
     <t>H-6-1</t>
   </si>
   <si>
@@ -667,27 +571,15 @@
     <t>H6</t>
   </si>
   <si>
-    <t>H22</t>
-  </si>
-  <si>
     <t>H-23-1</t>
   </si>
   <si>
-    <t>H23</t>
-  </si>
-  <si>
     <t>H-24-1</t>
   </si>
   <si>
-    <t>H24</t>
-  </si>
-  <si>
     <t>H-25-1</t>
   </si>
   <si>
-    <t>H25</t>
-  </si>
-  <si>
     <t>H-7-1</t>
   </si>
   <si>
@@ -715,15 +607,9 @@
     <t>H-27-1</t>
   </si>
   <si>
-    <t>H27</t>
-  </si>
-  <si>
     <t>H-28-1</t>
   </si>
   <si>
-    <t>H28</t>
-  </si>
-  <si>
     <t>H-29-1</t>
   </si>
   <si>
@@ -742,15 +628,9 @@
     <t>H-8-1</t>
   </si>
   <si>
-    <t>H8</t>
-  </si>
-  <si>
     <t>H-9-1</t>
   </si>
   <si>
-    <t>H9</t>
-  </si>
-  <si>
     <t>H22_1-1</t>
   </si>
   <si>
@@ -772,15 +652,9 @@
     <t>H22_11-1</t>
   </si>
   <si>
-    <t>H22_11</t>
-  </si>
-  <si>
     <t>H22_12-1</t>
   </si>
   <si>
-    <t>H22_12</t>
-  </si>
-  <si>
     <t>H22_5-1</t>
   </si>
   <si>
@@ -790,21 +664,12 @@
     <t>H22_5</t>
   </si>
   <si>
-    <t>H22_13</t>
-  </si>
-  <si>
     <t>H22_14-1</t>
   </si>
   <si>
-    <t>H22_14</t>
-  </si>
-  <si>
     <t>H22_15-1</t>
   </si>
   <si>
-    <t>H22_15</t>
-  </si>
-  <si>
     <t>H22_6-1</t>
   </si>
   <si>
@@ -814,21 +679,12 @@
     <t>H22_6</t>
   </si>
   <si>
-    <t>H22_16</t>
-  </si>
-  <si>
     <t>H22_17-1</t>
   </si>
   <si>
-    <t>H22_17</t>
-  </si>
-  <si>
     <t>H22_18-1</t>
   </si>
   <si>
-    <t>H22_18</t>
-  </si>
-  <si>
     <t>H22_7-1</t>
   </si>
   <si>
@@ -838,9 +694,6 @@
     <t>H22_7</t>
   </si>
   <si>
-    <t>H22_19</t>
-  </si>
-  <si>
     <t>H22_2-1</t>
   </si>
   <si>
@@ -850,15 +703,9 @@
     <t>H22_20-1</t>
   </si>
   <si>
-    <t>H22_20</t>
-  </si>
-  <si>
     <t>H22_21-1</t>
   </si>
   <si>
-    <t>H22_21</t>
-  </si>
-  <si>
     <t>H22_8-1</t>
   </si>
   <si>
@@ -868,21 +715,12 @@
     <t>H22_8</t>
   </si>
   <si>
-    <t>H22_22</t>
-  </si>
-  <si>
     <t>H22_23-1</t>
   </si>
   <si>
-    <t>H22_23</t>
-  </si>
-  <si>
     <t>H22_24-1</t>
   </si>
   <si>
-    <t>H22_24</t>
-  </si>
-  <si>
     <t>H22_9-1</t>
   </si>
   <si>
@@ -1009,27 +847,15 @@
     <t>L-6-1</t>
   </si>
   <si>
-    <t>L6</t>
-  </si>
-  <si>
     <t>L-7-1</t>
   </si>
   <si>
-    <t>L7</t>
-  </si>
-  <si>
     <t>L-8-1</t>
   </si>
   <si>
-    <t>L8</t>
-  </si>
-  <si>
     <t>L-9-1</t>
   </si>
   <si>
-    <t>L9</t>
-  </si>
-  <si>
     <t>L22_1-1</t>
   </si>
   <si>
@@ -1066,18 +892,12 @@
     <t>L22_11-1</t>
   </si>
   <si>
-    <t>L22_11</t>
-  </si>
-  <si>
     <t>L22_6-3</t>
   </si>
   <si>
     <t>L22_12-1</t>
   </si>
   <si>
-    <t>L22_12</t>
-  </si>
-  <si>
     <t>L22_7-1</t>
   </si>
   <si>
@@ -1105,21 +925,12 @@
     <t>L22_8</t>
   </si>
   <si>
-    <t>L22_14</t>
-  </si>
-  <si>
     <t>L22_15-1</t>
   </si>
   <si>
-    <t>L22_15</t>
-  </si>
-  <si>
     <t>L22_16-1</t>
   </si>
   <si>
-    <t>L22_16</t>
-  </si>
-  <si>
     <t>L22_9-1</t>
   </si>
   <si>
@@ -1129,21 +940,12 @@
     <t>L22_9</t>
   </si>
   <si>
-    <t>L22_17</t>
-  </si>
-  <si>
     <t>L22_18-1</t>
   </si>
   <si>
-    <t>L22_18</t>
-  </si>
-  <si>
     <t>L22_19-1</t>
   </si>
   <si>
-    <t>L22_19</t>
-  </si>
-  <si>
     <t>L22_2-1</t>
   </si>
   <si>
@@ -1153,19 +955,10 @@
     <t>L22_20-1</t>
   </si>
   <si>
-    <t>L22_20</t>
-  </si>
-  <si>
     <t>L22_21-1</t>
   </si>
   <si>
-    <t>L22_21</t>
-  </si>
-  <si>
     <t>L22_22-1</t>
-  </si>
-  <si>
-    <t>L22_22</t>
   </si>
   <si>
     <t>L22_3-1</t>
@@ -1815,8 +1608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191:D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1852,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>448</v>
+        <v>379</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>8</v>
@@ -2370,9 +2163,6 @@
       <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="F7" s="1">
         <v>5.6</v>
       </c>
@@ -2422,7 +2212,7 @@
         <v>-48.54711734</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W7" s="1">
         <v>47.191562830000002</v>
@@ -2443,21 +2233,18 @@
         <v>19.41613117470385</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="1">
         <v>3.86</v>
@@ -2529,21 +2316,18 @@
         <v>22.121575827829581</v>
       </c>
       <c r="AC8" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F9" s="1">
         <v>3.86</v>
@@ -2615,21 +2399,18 @@
         <v>22.66318940598233</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="F10" s="1">
         <v>3.86</v>
@@ -2701,21 +2482,18 @@
         <v>20.840968320169061</v>
       </c>
       <c r="AC10" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F11" s="1">
         <v>3.86</v>
@@ -2787,21 +2565,18 @@
         <v>21.839510345355439</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="F12" s="1">
         <v>3.86</v>
@@ -2873,18 +2648,18 @@
         <v>21.405249106452629</v>
       </c>
       <c r="AC12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>78</v>
@@ -2967,13 +2742,13 @@
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>78</v>
@@ -3056,13 +2831,13 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>78</v>
@@ -3119,7 +2894,7 @@
         <v>-48.876647140000003</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W15" s="1">
         <v>48.634374299999998</v>
@@ -3145,13 +2920,13 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>78</v>
@@ -3240,7 +3015,7 @@
         <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>78</v>
@@ -3323,16 +3098,16 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
@@ -3386,7 +3161,7 @@
         <v>-48.590646659999997</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W18" s="1">
         <v>49.387731180000003</v>
@@ -3412,16 +3187,16 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
@@ -3501,16 +3276,16 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
@@ -3590,16 +3365,16 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>31</v>
@@ -3679,16 +3454,16 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>31</v>
@@ -3768,16 +3543,16 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
@@ -3857,16 +3632,16 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>31</v>
@@ -3946,16 +3721,16 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
@@ -4009,7 +3784,7 @@
         <v>-48.244597110000001</v>
       </c>
       <c r="V25" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W25" s="1">
         <v>49.006457240000003</v>
@@ -4035,16 +3810,16 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>31</v>
@@ -4124,16 +3899,16 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>31</v>
@@ -4213,16 +3988,16 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -4299,16 +4074,16 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -4385,16 +4160,16 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -4445,7 +4220,7 @@
         <v>-48.212626419999999</v>
       </c>
       <c r="V30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W30" s="1">
         <v>43.501996230000003</v>
@@ -4471,7 +4246,7 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
@@ -4479,9 +4254,6 @@
       <c r="C31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="F31" s="1">
         <v>5.6</v>
       </c>
@@ -4531,7 +4303,7 @@
         <v>-48.716215009999999</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W31" s="1">
         <v>48.205234689999997</v>
@@ -4552,12 +4324,12 @@
         <v>23.195448139686931</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>64</v>
@@ -4565,9 +4337,6 @@
       <c r="C32" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F32" s="1">
         <v>5.6</v>
       </c>
@@ -4638,12 +4407,12 @@
         <v>21.30013045330152</v>
       </c>
       <c r="AC32" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>64</v>
@@ -4651,9 +4420,6 @@
       <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F33" s="1">
         <v>5.6</v>
       </c>
@@ -4703,7 +4469,7 @@
         <v>-48.424190189999997</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W33" s="1">
         <v>47.998709009999999</v>
@@ -4724,12 +4490,12 @@
         <v>21.25842036963687</v>
       </c>
       <c r="AC33" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>64</v>
@@ -4737,9 +4503,6 @@
       <c r="C34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="F34" s="1">
         <v>5.6</v>
       </c>
@@ -4810,21 +4573,21 @@
         <v>20.868365238414722</v>
       </c>
       <c r="AC34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -4875,7 +4638,7 @@
         <v>-48.848401709999997</v>
       </c>
       <c r="V35" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W35" s="1">
         <v>50.313831355140202</v>
@@ -4901,16 +4664,16 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -4961,7 +4724,7 @@
         <v>-48.102552950000003</v>
       </c>
       <c r="V36" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W36" s="1">
         <v>48.575045666666703</v>
@@ -4987,16 +4750,16 @@
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -5047,7 +4810,7 @@
         <v>-47.693996949999999</v>
       </c>
       <c r="V37" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W37" s="1">
         <v>47.772905510204097</v>
@@ -5073,16 +4836,13 @@
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F38" s="1">
         <v>3.83</v>
@@ -5133,7 +4893,7 @@
         <v>-48.010712779999999</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W38" s="1">
         <v>48.730753710000002</v>
@@ -5154,21 +4914,18 @@
         <v>20.969039611269029</v>
       </c>
       <c r="AC38" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="F39" s="1">
         <v>3.83</v>
@@ -5219,7 +4976,7 @@
         <v>-48.279630969999999</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W39" s="1">
         <v>49.749636825242703</v>
@@ -5240,21 +4997,18 @@
         <v>21.401359571269321</v>
       </c>
       <c r="AC39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F40" s="1">
         <v>4.34</v>
@@ -5305,7 +5059,7 @@
         <v>-48.24589082</v>
       </c>
       <c r="V40" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W40" s="1">
         <v>48.805360505376299</v>
@@ -5326,21 +5080,18 @@
         <v>22.908403183274121</v>
       </c>
       <c r="AC40" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="F41" s="1">
         <v>4.34</v>
@@ -5391,7 +5142,7 @@
         <v>-48.568504359999999</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W41" s="1">
         <v>49.191001836363597</v>
@@ -5412,21 +5163,18 @@
         <v>19.646950187343691</v>
       </c>
       <c r="AC41" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F42" s="1">
         <v>4.34</v>
@@ -5477,7 +5225,7 @@
         <v>-48.302479980000001</v>
       </c>
       <c r="V42" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W42" s="1">
         <v>49.809826609523803</v>
@@ -5498,21 +5246,18 @@
         <v>19.18497217874291</v>
       </c>
       <c r="AC42" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F43" s="1">
         <v>5.22</v>
@@ -5563,7 +5308,7 @@
         <v>-48.088772380000002</v>
       </c>
       <c r="V43" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W43" s="1">
         <v>48.972737867924501</v>
@@ -5584,21 +5329,18 @@
         <v>17.714874726512321</v>
       </c>
       <c r="AC43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="F44" s="1">
         <v>5.22</v>
@@ -5649,7 +5391,7 @@
         <v>-48.306314989999997</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W44" s="1">
         <v>47.370191869999999</v>
@@ -5670,21 +5412,18 @@
         <v>18.522128400457081</v>
       </c>
       <c r="AC44" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F45" s="1">
         <v>5.22</v>
@@ -5735,7 +5474,7 @@
         <v>-48.25011654</v>
       </c>
       <c r="V45" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W45" s="1">
         <v>49.075382797872301</v>
@@ -5756,21 +5495,18 @@
         <v>24.557349879150578</v>
       </c>
       <c r="AC45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="F46" s="1">
         <v>1.88</v>
@@ -5821,7 +5557,7 @@
         <v>-48.058990010000002</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W46" s="1">
         <v>48.887367958762901</v>
@@ -5847,16 +5583,13 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="F47" s="1">
         <v>1.88</v>
@@ -5907,7 +5640,7 @@
         <v>-48.656870990000002</v>
       </c>
       <c r="V47" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W47" s="1">
         <v>49.066380704081602</v>
@@ -5933,16 +5666,16 @@
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -5993,7 +5726,7 @@
         <v>-47.86684425</v>
       </c>
       <c r="V48" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W48" s="1">
         <v>49.416323752577298</v>
@@ -6019,16 +5752,16 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -6079,7 +5812,7 @@
         <v>-48.13163196</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W49" s="1">
         <v>47.847826118279599</v>
@@ -6105,16 +5838,16 @@
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -6165,7 +5898,7 @@
         <v>-48.569099639999997</v>
       </c>
       <c r="V50" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W50" s="1">
         <v>48.765185811320798</v>
@@ -6191,16 +5924,13 @@
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="F51" s="1">
         <v>1.88</v>
@@ -6251,7 +5981,7 @@
         <v>-48.25643298</v>
       </c>
       <c r="V51" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W51" s="1">
         <v>48.669139082568798</v>
@@ -6277,16 +6007,16 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -6337,7 +6067,7 @@
         <v>-47.821379210000003</v>
       </c>
       <c r="V52" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W52" s="1">
         <v>48.333407824742302</v>
@@ -6363,16 +6093,16 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -6423,7 +6153,7 @@
         <v>-47.951562170000003</v>
       </c>
       <c r="V53" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W53" s="1">
         <v>49.234609963636402</v>
@@ -6449,16 +6179,16 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -6509,7 +6239,7 @@
         <v>-48.350446589999997</v>
       </c>
       <c r="V54" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W54" s="1">
         <v>48.290464510416697</v>
@@ -6535,16 +6265,16 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -6595,7 +6325,7 @@
         <v>-48.356385449999998</v>
       </c>
       <c r="V55" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W55" s="1">
         <v>49.001242509259299</v>
@@ -6621,16 +6351,16 @@
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -6681,7 +6411,7 @@
         <v>-48.085886285000001</v>
       </c>
       <c r="V56" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W56" s="1">
         <v>48.974979928062702</v>
@@ -6707,16 +6437,16 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -6767,7 +6497,7 @@
         <v>-47.625692350000001</v>
       </c>
       <c r="V57" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W57" s="1">
         <v>49.198216204301097</v>
@@ -6793,16 +6523,16 @@
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F58" s="1">
         <v>0.06</v>
@@ -6853,7 +6583,7 @@
         <v>-48.227092990000003</v>
       </c>
       <c r="V58" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W58" s="1">
         <v>48.684465074074097</v>
@@ -6879,16 +6609,16 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F59" s="1">
         <v>0.06</v>
@@ -6939,7 +6669,7 @@
         <v>-48.376658730000003</v>
       </c>
       <c r="V59" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W59" s="1">
         <v>49.548509245098003</v>
@@ -6965,16 +6695,16 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F60" s="1">
         <v>0.06</v>
@@ -7025,7 +6755,7 @@
         <v>-48.558678380000003</v>
       </c>
       <c r="V60" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W60" s="1">
         <v>48.643967181818198</v>
@@ -7051,16 +6781,13 @@
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="F61" s="1">
         <v>5.5</v>
@@ -7111,7 +6838,7 @@
         <v>-48.206370454999998</v>
       </c>
       <c r="V61" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W61" s="1">
         <v>48.8670855344469</v>
@@ -7132,21 +6859,18 @@
         <v>20.859802892469862</v>
       </c>
       <c r="AC61" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="F62" s="1">
         <v>5.5</v>
@@ -7197,7 +6921,7 @@
         <v>-48.193029879999997</v>
       </c>
       <c r="V62" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W62" s="1">
         <v>49.299744211009198</v>
@@ -7218,21 +6942,18 @@
         <v>22.258140800083421</v>
       </c>
       <c r="AC62" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="F63" s="1">
         <v>5.5</v>
@@ -7283,7 +7004,7 @@
         <v>-48.041743660000002</v>
       </c>
       <c r="V63" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W63" s="1">
         <v>47.452647080454597</v>
@@ -7304,21 +7025,18 @@
         <v>18.07271448026934</v>
       </c>
       <c r="AC63" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F64" s="1">
         <v>3.83</v>
@@ -7369,7 +7087,7 @@
         <v>-48.558218029999999</v>
       </c>
       <c r="V64" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W64" s="1">
         <v>49.167885148148102</v>
@@ -7390,21 +7108,21 @@
         <v>22.262072755128209</v>
       </c>
       <c r="AC64" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>31</v>
@@ -7458,7 +7176,7 @@
         <v>-47.502760119999998</v>
       </c>
       <c r="V65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W65" s="1">
         <v>45.225749690000001</v>
@@ -7479,21 +7197,21 @@
         <v>22.18450583460514</v>
       </c>
       <c r="AC65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>31</v>
@@ -7568,21 +7286,21 @@
         <v>21.946463902065108</v>
       </c>
       <c r="AC66" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>31</v>
@@ -7636,7 +7354,7 @@
         <v>-47.925184199999997</v>
       </c>
       <c r="V67" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W67" s="1">
         <v>49.590194080000003</v>
@@ -7657,21 +7375,21 @@
         <v>23.56998079314182</v>
       </c>
       <c r="AC67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>31</v>
@@ -7746,21 +7464,21 @@
         <v>20.428609423761731</v>
       </c>
       <c r="AC68" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>31</v>
@@ -7835,21 +7553,18 @@
         <v>19.492759252878439</v>
       </c>
       <c r="AC69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -7900,7 +7615,7 @@
         <v>-48.227674595000003</v>
       </c>
       <c r="V70" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W70" s="1">
         <v>48.157173784999998</v>
@@ -7926,16 +7641,13 @@
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -8012,16 +7724,13 @@
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="F72" s="1">
         <v>7.96</v>
@@ -8093,21 +7802,18 @@
         <v>22.785316081667759</v>
       </c>
       <c r="AC72" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="F73" s="1">
         <v>7.96</v>
@@ -8158,7 +7864,7 @@
         <v>-48.47899159</v>
       </c>
       <c r="V73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W73" s="1">
         <v>48.448306639999998</v>
@@ -8179,21 +7885,18 @@
         <v>24.56019431498337</v>
       </c>
       <c r="AC73" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F74" s="1">
         <v>7.96</v>
@@ -8265,21 +7968,18 @@
         <v>24.755512944338911</v>
       </c>
       <c r="AC74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F75" s="1">
         <v>7.96</v>
@@ -8351,21 +8051,18 @@
         <v>26.06998204412033</v>
       </c>
       <c r="AC75" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="F76" s="1">
         <v>7.96</v>
@@ -8437,21 +8134,18 @@
         <v>25.633640643092139</v>
       </c>
       <c r="AC76" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="F77" s="1">
         <v>5.87</v>
@@ -8523,21 +8217,18 @@
         <v>20.296774390796191</v>
       </c>
       <c r="AC77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F78" s="1">
         <v>5.87</v>
@@ -8609,21 +8300,18 @@
         <v>23.089075243800199</v>
       </c>
       <c r="AC78" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="F79" s="1">
         <v>5.87</v>
@@ -8695,21 +8383,18 @@
         <v>23.609806724235931</v>
       </c>
       <c r="AC79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="F80" s="1">
         <v>7.89</v>
@@ -8781,21 +8466,18 @@
         <v>21.38956575253388</v>
       </c>
       <c r="AC80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="F81" s="1">
         <v>5.87</v>
@@ -8867,21 +8549,18 @@
         <v>20.47134049932232</v>
       </c>
       <c r="AC81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="F82" s="1">
         <v>5.87</v>
@@ -8953,21 +8632,18 @@
         <v>24.752475162987299</v>
       </c>
       <c r="AC82" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="F83" s="1">
         <v>2.54</v>
@@ -9044,16 +8720,13 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="F84" s="1">
         <v>2.54</v>
@@ -9130,16 +8803,13 @@
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="F85" s="1">
         <v>2.54</v>
@@ -9216,16 +8886,13 @@
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="F86" s="1">
         <v>2.54</v>
@@ -9302,16 +8969,16 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="F87" s="1">
         <v>0</v>
@@ -9388,19 +9055,19 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F88" s="1">
         <v>0</v>
@@ -9477,19 +9144,19 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F89" s="1">
         <v>0</v>
@@ -9566,19 +9233,19 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="F90" s="1">
         <v>0</v>
@@ -9655,16 +9322,13 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>231</v>
+        <v>188</v>
       </c>
       <c r="F91" s="1">
         <v>0</v>
@@ -9741,16 +9405,13 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="F92" s="1">
         <v>0</v>
@@ -9827,16 +9488,16 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="F93" s="1">
         <v>0</v>
@@ -9913,19 +9574,19 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F94" s="1">
         <v>0</v>
@@ -10002,19 +9663,19 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F95" s="1">
         <v>0</v>
@@ -10091,19 +9752,19 @@
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>235</v>
+        <v>197</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="F96" s="1">
         <v>0</v>
@@ -10180,16 +9841,13 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>236</v>
+        <v>198</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F97" s="1">
         <v>7.89</v>
@@ -10240,7 +9898,7 @@
         <v>-49.12050077</v>
       </c>
       <c r="V97" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W97" s="1">
         <v>51.442893210000001</v>
@@ -10261,21 +9919,21 @@
         <v>23.31509457296891</v>
       </c>
       <c r="AC97" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="F98" s="1">
         <v>0</v>
@@ -10352,19 +10010,19 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F99" s="1">
         <v>0</v>
@@ -10441,19 +10099,19 @@
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F100" s="1">
         <v>0</v>
@@ -10530,19 +10188,19 @@
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>237</v>
+        <v>199</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>238</v>
+        <v>200</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="F101" s="1">
         <v>0</v>
@@ -10619,16 +10277,13 @@
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="F102" s="1">
         <v>7.89</v>
@@ -10700,21 +10355,18 @@
         <v>23.789837784602039</v>
       </c>
       <c r="AC102" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="F103" s="1">
         <v>7.89</v>
@@ -10786,21 +10438,18 @@
         <v>19.819291208638941</v>
       </c>
       <c r="AC103" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="F104" s="1">
         <v>7.89</v>
@@ -10872,21 +10521,18 @@
         <v>25.097192198506381</v>
       </c>
       <c r="AC104" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="F105" s="1">
         <v>0</v>
@@ -10963,16 +10609,13 @@
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="F106" s="1">
         <v>0</v>
@@ -11023,7 +10666,7 @@
         <v>-48.253021349999997</v>
       </c>
       <c r="V106" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W106" s="1">
         <v>49.421997750000003</v>
@@ -11049,16 +10692,13 @@
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="F107" s="1">
         <v>0</v>
@@ -11135,16 +10775,13 @@
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="F108" s="1">
         <v>6.93</v>
@@ -11195,7 +10832,7 @@
         <v>-48.15534349</v>
       </c>
       <c r="V108" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W108" s="1">
         <v>48.6778937678001</v>
@@ -11216,21 +10853,18 @@
         <v>21.682785133740861</v>
       </c>
       <c r="AC108" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="F109" s="1">
         <v>7.39</v>
@@ -11281,7 +10915,7 @@
         <v>-48.330231490000003</v>
       </c>
       <c r="V109" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W109" s="1">
         <v>49.106816269230798</v>
@@ -11302,21 +10936,18 @@
         <v>23.215442870689039</v>
       </c>
       <c r="AC109" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="F110" s="1">
         <v>7.39</v>
@@ -11367,7 +10998,7 @@
         <v>-48.351737479999997</v>
       </c>
       <c r="V110" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W110" s="1">
         <v>49.223901269999999</v>
@@ -11388,21 +11019,18 @@
         <v>19.250250282421831</v>
       </c>
       <c r="AC110" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="F111" s="1">
         <v>7.39</v>
@@ -11453,7 +11081,7 @@
         <v>-48.310209200000003</v>
       </c>
       <c r="V111" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W111" s="1">
         <v>45.382363117021299</v>
@@ -11474,21 +11102,18 @@
         <v>22.80641431457585</v>
       </c>
       <c r="AC111" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="F112" s="1">
         <v>7.56</v>
@@ -11539,7 +11164,7 @@
         <v>-48.279550409999999</v>
       </c>
       <c r="V112" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W112" s="1">
         <v>48.758935838383799</v>
@@ -11560,21 +11185,18 @@
         <v>23.292370006403821</v>
       </c>
       <c r="AC112" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>258</v>
+        <v>213</v>
       </c>
       <c r="F113" s="1">
         <v>7.56</v>
@@ -11625,7 +11247,7 @@
         <v>-48.152481190000003</v>
       </c>
       <c r="V113" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W113" s="1">
         <v>54.798508571428599</v>
@@ -11646,21 +11268,18 @@
         <v>19.300385745921432</v>
       </c>
       <c r="AC113" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="F114" s="1">
         <v>7.56</v>
@@ -11711,7 +11330,7 @@
         <v>-48.315950409999999</v>
       </c>
       <c r="V114" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W114" s="1">
         <v>49.468666648148101</v>
@@ -11732,21 +11351,18 @@
         <v>23.37900594619002</v>
       </c>
       <c r="AC114" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="F115" s="1">
         <v>5.82</v>
@@ -11797,7 +11413,7 @@
         <v>-48.254430489999997</v>
       </c>
       <c r="V115" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W115" s="1">
         <v>47.389275271844703</v>
@@ -11818,21 +11434,18 @@
         <v>20.644304823529019</v>
       </c>
       <c r="AC115" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="F116" s="1">
         <v>5.82</v>
@@ -11883,7 +11496,7 @@
         <v>-48.664073180000003</v>
       </c>
       <c r="V116" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W116" s="1">
         <v>49.4262605607477</v>
@@ -11904,21 +11517,18 @@
         <v>23.748928451378269</v>
       </c>
       <c r="AC116" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
-        <v>267</v>
+        <v>220</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="F117" s="1">
         <v>5.82</v>
@@ -11969,7 +11579,7 @@
         <v>-47.646561060000003</v>
       </c>
       <c r="V117" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W117" s="1">
         <v>49.255376762886598</v>
@@ -11990,21 +11600,18 @@
         <v>16.843534062279488</v>
       </c>
       <c r="AC117" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
       <c r="F118" s="1">
         <v>5.03</v>
@@ -12055,7 +11662,7 @@
         <v>-48.04946168</v>
       </c>
       <c r="V118" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W118" s="1">
         <v>48.740687197802202</v>
@@ -12076,21 +11683,18 @@
         <v>22.240215009868251</v>
       </c>
       <c r="AC118" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>274</v>
+        <v>204</v>
       </c>
       <c r="F119" s="1">
         <v>6.93</v>
@@ -12141,7 +11745,7 @@
         <v>-48.599983639999998</v>
       </c>
       <c r="V119" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W119" s="1">
         <v>49.027912721153797</v>
@@ -12162,21 +11766,18 @@
         <v>19.73234566683254</v>
       </c>
       <c r="AC119" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
-        <v>275</v>
+        <v>226</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="F120" s="1">
         <v>5.03</v>
@@ -12227,7 +11828,7 @@
         <v>-47.391003920000003</v>
       </c>
       <c r="V120" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W120" s="1">
         <v>47.522362384615398</v>
@@ -12248,21 +11849,18 @@
         <v>19.37906207745251</v>
       </c>
       <c r="AC120" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="F121" s="1">
         <v>5.03</v>
@@ -12313,7 +11911,7 @@
         <v>-48.749873479999998</v>
       </c>
       <c r="V121" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W121" s="1">
         <v>46.945017370370401</v>
@@ -12334,21 +11932,18 @@
         <v>21.318868895767778</v>
       </c>
       <c r="AC121" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="F122" s="1">
         <v>4.51</v>
@@ -12399,7 +11994,7 @@
         <v>-48.4788882</v>
       </c>
       <c r="V122" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W122" s="1">
         <v>48.836997109090902</v>
@@ -12420,21 +12015,18 @@
         <v>14.650356795148319</v>
       </c>
       <c r="AC122" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="F123" s="1">
         <v>4.51</v>
@@ -12485,7 +12077,7 @@
         <v>-48.353589790000001</v>
       </c>
       <c r="V123" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W123" s="1">
         <v>48.796509444444403</v>
@@ -12506,21 +12098,18 @@
         <v>14.626627258828901</v>
       </c>
       <c r="AC123" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="F124" s="1">
         <v>4.51</v>
@@ -12571,7 +12160,7 @@
         <v>-48.338803009999999</v>
       </c>
       <c r="V124" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W124" s="1">
         <v>47.836161391304302</v>
@@ -12592,21 +12181,21 @@
         <v>16.845544047136631</v>
       </c>
       <c r="AC124" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="F125" s="1">
         <v>0</v>
@@ -12657,7 +12246,7 @@
         <v>-47.963675389999999</v>
       </c>
       <c r="V125" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W125" s="1">
         <v>46.775595619565202</v>
@@ -12683,16 +12272,16 @@
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -12743,7 +12332,7 @@
         <v>-48.617031439999998</v>
       </c>
       <c r="V126" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W126" s="1">
         <v>48.743404185185199</v>
@@ -12769,16 +12358,16 @@
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -12829,7 +12418,7 @@
         <v>-48.34919541</v>
       </c>
       <c r="V127" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W127" s="1">
         <v>48.027272525252499</v>
@@ -12855,16 +12444,16 @@
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -12915,7 +12504,7 @@
         <v>-48.237991809999997</v>
       </c>
       <c r="V128" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W128" s="1">
         <v>47.8493539727273</v>
@@ -12941,16 +12530,16 @@
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -13001,7 +12590,7 @@
         <v>-48.319882909999997</v>
       </c>
       <c r="V129" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W129" s="1">
         <v>47.624967962962998</v>
@@ -13027,16 +12616,16 @@
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -13087,7 +12676,7 @@
         <v>-48.252675529999998</v>
       </c>
       <c r="V130" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W130" s="1">
         <v>47.108946161904797</v>
@@ -13113,16 +12702,13 @@
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>298</v>
+        <v>204</v>
       </c>
       <c r="F131" s="1">
         <v>6.93</v>
@@ -13173,7 +12759,7 @@
         <v>-48.375358300000002</v>
       </c>
       <c r="V131" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W131" s="1">
         <v>48.660384953703698</v>
@@ -13194,21 +12780,18 @@
         <v>17.28459912583557</v>
       </c>
       <c r="AC131" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="F132" s="1">
         <v>4.72</v>
@@ -13259,7 +12842,7 @@
         <v>-47.569573040000002</v>
       </c>
       <c r="V132" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W132" s="1">
         <v>47.637643065217397</v>
@@ -13280,21 +12863,18 @@
         <v>23.670881046894081</v>
       </c>
       <c r="AC132" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F133" s="1">
         <v>4.72</v>
@@ -13345,7 +12925,7 @@
         <v>-48.085557369999997</v>
       </c>
       <c r="V133" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W133" s="1">
         <v>44.708340683673498</v>
@@ -13366,21 +12946,18 @@
         <v>22.636253743058301</v>
       </c>
       <c r="AC133" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
       <c r="F134" s="1">
         <v>4.72</v>
@@ -13431,7 +13008,7 @@
         <v>-48.191519810000003</v>
       </c>
       <c r="V134" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W134" s="1">
         <v>49.377601904761903</v>
@@ -13452,21 +13029,18 @@
         <v>22.45964469176473</v>
       </c>
       <c r="AC134" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="F135" s="1">
         <v>6.86</v>
@@ -13517,7 +13091,7 @@
         <v>-47.824178150000002</v>
       </c>
       <c r="V135" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W135" s="1">
         <v>48.99070279</v>
@@ -13538,21 +13112,18 @@
         <v>24.722368658859409</v>
       </c>
       <c r="AC135" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="F136" s="1">
         <v>6.86</v>
@@ -13603,7 +13174,7 @@
         <v>-47.95478525</v>
       </c>
       <c r="V136" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W136" s="1">
         <v>47.830609206185599</v>
@@ -13624,21 +13195,18 @@
         <v>23.023074635640491</v>
       </c>
       <c r="AC136" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="F137" s="1">
         <v>6.86</v>
@@ -13689,7 +13257,7 @@
         <v>-47.860640564999997</v>
       </c>
       <c r="V137" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W137" s="1">
         <v>47.292272093294898</v>
@@ -13710,21 +13278,18 @@
         <v>24.129383100668608</v>
       </c>
       <c r="AC137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="F138" s="1">
         <v>5.36</v>
@@ -13796,21 +13361,21 @@
         <v>21.212796458582279</v>
       </c>
       <c r="AC138" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>31</v>
@@ -13890,16 +13455,16 @@
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="E140" s="1" t="s">
         <v>31</v>
@@ -13953,7 +13518,7 @@
         <v>-48.231423120000002</v>
       </c>
       <c r="V140" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W140" s="1">
         <v>45.491564889999999</v>
@@ -13979,16 +13544,16 @@
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="E141" s="1" t="s">
         <v>31</v>
@@ -14068,16 +13633,16 @@
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>31</v>
@@ -14157,16 +13722,16 @@
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="E143" s="1" t="s">
         <v>31</v>
@@ -14246,16 +13811,16 @@
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="E144" s="1" t="s">
         <v>31</v>
@@ -14330,21 +13895,21 @@
         <v>19.346504455389091</v>
       </c>
       <c r="AC144" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>31</v>
@@ -14419,21 +13984,21 @@
         <v>19.163908378272019</v>
       </c>
       <c r="AC145" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>31</v>
@@ -14487,7 +14052,7 @@
         <v>-48.499170530000001</v>
       </c>
       <c r="V146" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W146" s="1">
         <v>46.233605230000002</v>
@@ -14508,21 +14073,21 @@
         <v>19.354849578372789</v>
       </c>
       <c r="AC146" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>31</v>
@@ -14597,21 +14162,21 @@
         <v>19.137019616412999</v>
       </c>
       <c r="AC147" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>31</v>
@@ -14686,21 +14251,21 @@
         <v>23.380302097703488</v>
       </c>
       <c r="AC148" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>31</v>
@@ -14775,21 +14340,21 @@
         <v>22.74225400990878</v>
       </c>
       <c r="AC149" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>31</v>
@@ -14843,7 +14408,7 @@
         <v>-48.323937299999997</v>
       </c>
       <c r="V150" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W150" s="1">
         <v>49.144392715000002</v>
@@ -14864,21 +14429,21 @@
         <v>21.606934757545751</v>
       </c>
       <c r="AC150" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="E151" s="1" t="s">
         <v>31</v>
@@ -14932,7 +14497,7 @@
         <v>-47.660851219999998</v>
       </c>
       <c r="V151" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W151" s="1">
         <v>47.083403590000003</v>
@@ -14953,21 +14518,21 @@
         <v>22.12766911696929</v>
       </c>
       <c r="AC151" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>31</v>
@@ -15042,21 +14607,21 @@
         <v>22.86269700823096</v>
       </c>
       <c r="AC152" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>31</v>
@@ -15131,21 +14696,18 @@
         <v>22.653280382754119</v>
       </c>
       <c r="AC153" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
       <c r="F154" s="1">
         <v>5.36</v>
@@ -15196,7 +14758,7 @@
         <v>-48.277345349999997</v>
       </c>
       <c r="V154" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W154" s="1">
         <v>47.98771627</v>
@@ -15217,21 +14779,18 @@
         <v>17.712138077593561</v>
       </c>
       <c r="AC154" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="F155" s="1">
         <v>5.36</v>
@@ -15303,21 +14862,18 @@
         <v>19.791075414398438</v>
       </c>
       <c r="AC155" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
       <c r="F156" s="1">
         <v>5.36</v>
@@ -15389,21 +14945,18 @@
         <v>20.578595954246008</v>
       </c>
       <c r="AC156" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="F157" s="1">
         <v>5.36</v>
@@ -15454,7 +15007,7 @@
         <v>-47.866428409999997</v>
       </c>
       <c r="V157" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W157" s="1">
         <v>48.169316350000003</v>
@@ -15475,21 +15028,18 @@
         <v>16.95822462613749</v>
       </c>
       <c r="AC157" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="F158" s="1">
         <v>6.77</v>
@@ -15561,21 +15111,18 @@
         <v>21.386372722202189</v>
       </c>
       <c r="AC158" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="F159" s="1">
         <v>6.77</v>
@@ -15626,7 +15173,7 @@
         <v>-48.34875418</v>
       </c>
       <c r="V159" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W159" s="1">
         <v>48.126693230000001</v>
@@ -15647,21 +15194,18 @@
         <v>22.613399087604812</v>
       </c>
       <c r="AC159" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="F160" s="1">
         <v>6.77</v>
@@ -15712,7 +15256,7 @@
         <v>-48.719279890000003</v>
       </c>
       <c r="V160" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W160" s="1">
         <v>47.778067470000003</v>
@@ -15733,21 +15277,18 @@
         <v>17.683338563682931</v>
       </c>
       <c r="AC160" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="F161" s="1">
         <v>6.77</v>
@@ -15819,21 +15360,21 @@
         <v>21.376478341457581</v>
       </c>
       <c r="AC161" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>336</v>
+        <v>278</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="E162" s="1" t="s">
         <v>31</v>
@@ -15887,7 +15428,7 @@
         <v>-48.329013770000003</v>
       </c>
       <c r="V162" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W162" s="1">
         <v>49.032949021052602</v>
@@ -15908,21 +15449,21 @@
         <v>20.552295710957232</v>
       </c>
       <c r="AC162" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>31</v>
@@ -15976,7 +15517,7 @@
         <v>-48.638485699999997</v>
       </c>
       <c r="V163" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W163" s="1">
         <v>48.831983963636397</v>
@@ -15997,21 +15538,21 @@
         <v>17.044766479168679</v>
       </c>
       <c r="AC163" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="E164" s="1" t="s">
         <v>31</v>
@@ -16065,7 +15606,7 @@
         <v>-48.244015560000001</v>
       </c>
       <c r="V164" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W164" s="1">
         <v>49.383164359223301</v>
@@ -16086,21 +15627,21 @@
         <v>22.230863543242229</v>
       </c>
       <c r="AC164" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
-        <v>340</v>
+        <v>282</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="E165" s="1" t="s">
         <v>31</v>
@@ -16175,21 +15716,21 @@
         <v>17.30130416936295</v>
       </c>
       <c r="AC165" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>341</v>
+        <v>283</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>337</v>
+        <v>279</v>
       </c>
       <c r="E166" s="1" t="s">
         <v>31</v>
@@ -16264,21 +15805,18 @@
         <v>20.492741143064539</v>
       </c>
       <c r="AC166" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>343</v>
+        <v>285</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>345</v>
+        <v>286</v>
       </c>
       <c r="F167" s="1">
         <v>3.71</v>
@@ -16329,7 +15867,7 @@
         <v>-48.77768768</v>
       </c>
       <c r="V167" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W167" s="1">
         <v>49.964108049505001</v>
@@ -16350,21 +15888,18 @@
         <v>17.685569813918821</v>
       </c>
       <c r="AC167" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="F168" s="1">
         <v>3.71</v>
@@ -16415,7 +15950,7 @@
         <v>-48.612340189999998</v>
       </c>
       <c r="V168" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W168" s="1">
         <v>48.009801037735798</v>
@@ -16436,21 +15971,18 @@
         <v>19.095813270712721</v>
       </c>
       <c r="AC168" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
-        <v>350</v>
+        <v>291</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>351</v>
+        <v>286</v>
       </c>
       <c r="F169" s="1">
         <v>3.71</v>
@@ -16501,7 +16033,7 @@
         <v>-48.77231596</v>
       </c>
       <c r="V169" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W169" s="1">
         <v>49.025444336363599</v>
@@ -16522,21 +16054,21 @@
         <v>19.242054937617681</v>
       </c>
       <c r="AC169" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>353</v>
+        <v>293</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="F170" s="1">
         <v>1.74</v>
@@ -16587,7 +16119,7 @@
         <v>-48.240675660000001</v>
       </c>
       <c r="V170" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W170" s="1">
         <v>48.083422052631597</v>
@@ -16613,16 +16145,16 @@
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="F171" s="1">
         <v>1.74</v>
@@ -16673,7 +16205,7 @@
         <v>-47.101420539999999</v>
       </c>
       <c r="V171" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W171" s="1">
         <v>48.821355021052597</v>
@@ -16699,16 +16231,16 @@
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>355</v>
+        <v>295</v>
       </c>
       <c r="F172" s="1">
         <v>1.74</v>
@@ -16759,7 +16291,7 @@
         <v>-48.369207930000002</v>
       </c>
       <c r="V172" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W172" s="1">
         <v>48.266714537735801</v>
@@ -16785,16 +16317,13 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>359</v>
+        <v>299</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="F173" s="1">
         <v>4.88</v>
@@ -16845,7 +16374,7 @@
         <v>-48.327559659999999</v>
       </c>
       <c r="V173" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W173" s="1">
         <v>49.229849782178199</v>
@@ -16866,21 +16395,18 @@
         <v>22.021515272816561</v>
       </c>
       <c r="AC173" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>362</v>
+        <v>301</v>
       </c>
       <c r="B174" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="F174" s="1">
         <v>4.88</v>
@@ -16931,7 +16457,7 @@
         <v>-47.810128890000001</v>
       </c>
       <c r="V174" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W174" s="1">
         <v>48.268856418181798</v>
@@ -16952,21 +16478,18 @@
         <v>19.527981944740411</v>
       </c>
       <c r="AC174" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>364</v>
+        <v>302</v>
       </c>
       <c r="B175" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>365</v>
       </c>
       <c r="F175" s="1">
         <v>4.88</v>
@@ -17017,7 +16540,7 @@
         <v>-48.564674230000001</v>
       </c>
       <c r="V175" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W175" s="1">
         <v>48.564140270833299</v>
@@ -17038,21 +16561,18 @@
         <v>19.406738635089908</v>
       </c>
       <c r="AC175" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="F176" s="1">
         <v>4.45</v>
@@ -17103,7 +16623,7 @@
         <v>-47.822712619999997</v>
       </c>
       <c r="V176" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W176" s="1">
         <v>47.862402659793801</v>
@@ -17124,21 +16644,18 @@
         <v>20.778492637095709</v>
       </c>
       <c r="AC176" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="F177" s="1">
         <v>4.45</v>
@@ -17189,7 +16706,7 @@
         <v>-48.370997809999999</v>
       </c>
       <c r="V177" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W177" s="1">
         <v>47.762600020000001</v>
@@ -17210,21 +16727,18 @@
         <v>22.146126553744299</v>
       </c>
       <c r="AC177" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>372</v>
+        <v>307</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>373</v>
+        <v>305</v>
       </c>
       <c r="F178" s="1">
         <v>4.45</v>
@@ -17275,7 +16789,7 @@
         <v>-48.095161879999999</v>
       </c>
       <c r="V178" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W178" s="1">
         <v>47.5772152164948</v>
@@ -17296,21 +16810,18 @@
         <v>19.251277084044879</v>
       </c>
       <c r="AC178" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="F179" s="1">
         <v>3.76</v>
@@ -17361,7 +16872,7 @@
         <v>-47.81353009</v>
       </c>
       <c r="V179" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W179" s="1">
         <v>49.013634212121197</v>
@@ -17382,21 +16893,18 @@
         <v>21.081827135476619</v>
       </c>
       <c r="AC179" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>377</v>
+        <v>287</v>
       </c>
       <c r="F180" s="1">
         <v>4.59</v>
@@ -17447,7 +16955,7 @@
         <v>-48.505292779999998</v>
       </c>
       <c r="V180" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W180" s="1">
         <v>48.184056074766403</v>
@@ -17468,21 +16976,18 @@
         <v>21.543705291194101</v>
       </c>
       <c r="AC180" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="F181" s="1">
         <v>4.59</v>
@@ -17533,7 +17038,7 @@
         <v>-47.732797789999999</v>
       </c>
       <c r="V181" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W181" s="1">
         <v>46.985336968749998</v>
@@ -17554,21 +17059,18 @@
         <v>19.90096353319241</v>
       </c>
       <c r="AC181" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="182" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>381</v>
+        <v>287</v>
       </c>
       <c r="F182" s="1">
         <v>4.59</v>
@@ -17619,7 +17121,7 @@
         <v>-47.899706389999999</v>
       </c>
       <c r="V182" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W182" s="1">
         <v>47.504695445652203</v>
@@ -17640,21 +17142,18 @@
         <v>21.293497833757868</v>
       </c>
       <c r="AC182" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
-        <v>382</v>
+        <v>313</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>383</v>
+        <v>309</v>
       </c>
       <c r="F183" s="1">
         <v>3.76</v>
@@ -17705,7 +17204,7 @@
         <v>-48.198793559999999</v>
       </c>
       <c r="V183" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W183" s="1">
         <v>48.176138563541599</v>
@@ -17726,21 +17225,18 @@
         <v>21.086632234468521</v>
       </c>
       <c r="AC183" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="184" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>384</v>
+        <v>315</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>385</v>
+        <v>309</v>
       </c>
       <c r="F184" s="1">
         <v>3.76</v>
@@ -17791,7 +17287,7 @@
         <v>-48.244626490000002</v>
       </c>
       <c r="V184" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W184" s="1">
         <v>48.5621170392157</v>
@@ -17812,21 +17308,21 @@
         <v>23.13318999082588</v>
       </c>
       <c r="AC184" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="185" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="F185" s="1">
         <v>3.59</v>
@@ -17877,7 +17373,7 @@
         <v>-47.634986310000002</v>
       </c>
       <c r="V185" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W185" s="1">
         <v>48.2758586333333</v>
@@ -17898,21 +17394,21 @@
         <v>19.738777460090091</v>
       </c>
       <c r="AC185" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="186" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="F186" s="1">
         <v>3.59</v>
@@ -17963,7 +17459,7 @@
         <v>-48.325305020000002</v>
       </c>
       <c r="V186" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W186" s="1">
         <v>49.289932800000003</v>
@@ -17984,21 +17480,21 @@
         <v>22.651629903167169</v>
       </c>
       <c r="AC186" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>383</v>
+        <v>314</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="F187" s="1">
         <v>3.59</v>
@@ -18049,7 +17545,7 @@
         <v>-48.176839180000002</v>
       </c>
       <c r="V187" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W187" s="1">
         <v>46.744692819999997</v>
@@ -18070,21 +17566,21 @@
         <v>18.495573700020071</v>
       </c>
       <c r="AC187" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="188" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>342</v>
+        <v>284</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="F188" s="1">
         <v>4.3499999999999996</v>
@@ -18135,7 +17631,7 @@
         <v>-47.8072108</v>
       </c>
       <c r="V188" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W188" s="1">
         <v>49.063046031914901</v>
@@ -18156,21 +17652,21 @@
         <v>22.758405736635289</v>
       </c>
       <c r="AC188" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="189" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="F189" s="1">
         <v>4.3499999999999996</v>
@@ -18221,7 +17717,7 @@
         <v>-48.105893680000001</v>
       </c>
       <c r="V189" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W189" s="1">
         <v>48.534470859813098</v>
@@ -18242,21 +17738,21 @@
         <v>22.616947349054261</v>
       </c>
       <c r="AC189" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="190" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>349</v>
+        <v>290</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="F190" s="1">
         <v>4.3499999999999996</v>
@@ -18307,7 +17803,7 @@
         <v>-48.364081220000003</v>
       </c>
       <c r="V190" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W190" s="1">
         <v>48.492557782178203</v>
@@ -18328,21 +17824,18 @@
         <v>18.07921527964664</v>
       </c>
       <c r="AC190" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="191" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>352</v>
+        <v>292</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="F191" s="1">
         <v>3.4</v>
@@ -18393,7 +17886,7 @@
         <v>-48.288945699999999</v>
       </c>
       <c r="V191" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="W191" s="1">
         <v>48.919743113207502</v>
@@ -18414,21 +17907,18 @@
         <v>19.24796759476347</v>
       </c>
       <c r="AC191" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="192" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="F192" s="1">
         <v>3.4</v>
@@ -18479,7 +17969,7 @@
         <v>-48.366617779999999</v>
       </c>
       <c r="V192" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="W192" s="1">
         <v>48.924191574257399</v>
@@ -18500,21 +17990,18 @@
         <v>21.086140080341359</v>
       </c>
       <c r="AC192" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="193" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>366</v>
+        <v>303</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>368</v>
+        <v>318</v>
       </c>
       <c r="F193" s="1">
         <v>3.4</v>
@@ -18565,7 +18052,7 @@
         <v>-47.583913199999998</v>
       </c>
       <c r="V193" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W193" s="1">
         <v>48.463779440000003</v>
@@ -18586,7 +18073,7 @@
         <v>21.461143294767091</v>
       </c>
       <c r="AC193" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="194" spans="1:29" x14ac:dyDescent="0.15">
@@ -18603,7 +18090,7 @@
         <v>30</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>31</v>
@@ -18677,7 +18164,7 @@
         <v>30</v>
       </c>
       <c r="I195" s="1" t="s">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>31</v>
@@ -18751,7 +18238,7 @@
         <v>30</v>
       </c>
       <c r="I196" s="1" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>31</v>
@@ -18825,7 +18312,7 @@
         <v>30</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>449</v>
+        <v>380</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>31</v>
@@ -18899,7 +18386,7 @@
         <v>30</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>451</v>
+        <v>382</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>31</v>
@@ -18964,7 +18451,7 @@
         <v>52</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="G199" s="1">
         <v>-6.46</v>
@@ -18973,7 +18460,7 @@
         <v>30</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>31</v>
@@ -19038,7 +18525,7 @@
         <v>58</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="G200" s="1">
         <v>-6.46</v>
@@ -19047,7 +18534,7 @@
         <v>30</v>
       </c>
       <c r="I200" s="1" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>31</v>
@@ -19109,10 +18596,10 @@
     </row>
     <row r="201" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>441</v>
+        <v>372</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="G201" s="1">
         <v>-6.46</v>
@@ -19121,7 +18608,7 @@
         <v>30</v>
       </c>
       <c r="I201" s="1" t="s">
-        <v>454</v>
+        <v>385</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>31</v>
@@ -19183,10 +18670,10 @@
     </row>
     <row r="202" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>442</v>
+        <v>373</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>445</v>
+        <v>376</v>
       </c>
       <c r="G202" s="1">
         <v>-6.46</v>
@@ -19195,7 +18682,7 @@
         <v>30</v>
       </c>
       <c r="I202" s="1" t="s">
-        <v>455</v>
+        <v>386</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>31</v>
@@ -19269,7 +18756,7 @@
         <v>30</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>456</v>
+        <v>387</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>31</v>
@@ -19343,7 +18830,7 @@
         <v>30</v>
       </c>
       <c r="I204" s="1" t="s">
-        <v>457</v>
+        <v>388</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>31</v>
@@ -19417,7 +18904,7 @@
         <v>30</v>
       </c>
       <c r="I205" s="1" t="s">
-        <v>458</v>
+        <v>389</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>31</v>
@@ -19491,7 +18978,7 @@
         <v>30</v>
       </c>
       <c r="I206" s="1" t="s">
-        <v>459</v>
+        <v>390</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>31</v>
@@ -19556,7 +19043,7 @@
         <v>49</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="G207" s="1">
         <v>-6.46</v>
@@ -19565,7 +19052,7 @@
         <v>30</v>
       </c>
       <c r="I207" s="1" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>31</v>
@@ -19630,7 +19117,7 @@
         <v>47</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="G208" s="1">
         <v>-6.46</v>
@@ -19639,7 +19126,7 @@
         <v>30</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>460</v>
+        <v>391</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>31</v>
@@ -19704,7 +19191,7 @@
         <v>48</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="G209" s="1">
         <v>-6.46</v>
@@ -19713,7 +19200,7 @@
         <v>30</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>461</v>
+        <v>392</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>31</v>
@@ -19778,7 +19265,7 @@
         <v>46</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>444</v>
+        <v>375</v>
       </c>
       <c r="G210" s="1">
         <v>-6.46</v>
@@ -19787,7 +19274,7 @@
         <v>30</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>462</v>
+        <v>393</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>31</v>
@@ -19852,7 +19339,7 @@
         <v>38</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="G211" s="1">
         <v>-6.45</v>
@@ -19861,7 +19348,7 @@
         <v>39</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>463</v>
+        <v>394</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>31</v>
@@ -19935,7 +19422,7 @@
         <v>39</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>464</v>
+        <v>395</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>31</v>
@@ -20009,7 +19496,7 @@
         <v>39</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>465</v>
+        <v>396</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>31</v>
@@ -20083,7 +19570,7 @@
         <v>30</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>466</v>
+        <v>397</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>31</v>
@@ -20157,7 +19644,7 @@
         <v>41</v>
       </c>
       <c r="I215" s="1" t="s">
-        <v>467</v>
+        <v>398</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>31</v>
@@ -20222,7 +19709,7 @@
         <v>40</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>443</v>
+        <v>374</v>
       </c>
       <c r="G216" s="1">
         <v>-6.4</v>
@@ -20231,7 +19718,7 @@
         <v>41</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>468</v>
+        <v>399</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>31</v>
@@ -20293,19 +19780,19 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>390</v>
+        <v>321</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G217" s="1">
         <v>-6.69</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>69</v>
@@ -20367,19 +19854,19 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>392</v>
+        <v>323</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G218" s="1">
         <v>-6.69</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I218" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>69</v>
@@ -20441,19 +19928,19 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>393</v>
+        <v>324</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G219" s="1">
         <v>-6.69</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>69</v>
@@ -20492,7 +19979,7 @@
         <v>-47.605965730000001</v>
       </c>
       <c r="V219" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W219" s="1">
         <v>45.891765309999997</v>
@@ -20515,19 +20002,19 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>394</v>
+        <v>325</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G220" s="1">
         <v>-6.69</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>31</v>
@@ -20566,7 +20053,7 @@
         <v>-48.290612109999998</v>
       </c>
       <c r="V220" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W220" s="1">
         <v>52.611921076923103</v>
@@ -20589,19 +20076,19 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G221" s="1">
         <v>-6.69</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I221" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>69</v>
@@ -20663,19 +20150,19 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>396</v>
+        <v>327</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G222" s="1">
         <v>-6.69</v>
       </c>
       <c r="H222" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>69</v>
@@ -20737,19 +20224,19 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>397</v>
+        <v>328</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G223" s="1">
         <v>-6.69</v>
       </c>
       <c r="H223" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I223" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>69</v>
@@ -20811,19 +20298,19 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G224" s="1">
         <v>-6.69</v>
       </c>
       <c r="H224" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>69</v>
@@ -20885,19 +20372,19 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>399</v>
+        <v>330</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G225" s="1">
         <v>-6.69</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>31</v>
@@ -20936,7 +20423,7 @@
         <v>-47.725451849999999</v>
       </c>
       <c r="V225" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W225" s="1">
         <v>32.774111650943397</v>
@@ -20959,19 +20446,19 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G226" s="1">
         <v>-6.69</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>69</v>
@@ -21033,19 +20520,19 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G227" s="1">
         <v>-6.69</v>
       </c>
       <c r="H227" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I227" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>69</v>
@@ -21107,19 +20594,19 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>402</v>
+        <v>333</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>446</v>
+        <v>377</v>
       </c>
       <c r="G228" s="1">
         <v>-6.69</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>469</v>
+        <v>400</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>69</v>
@@ -21181,19 +20668,19 @@
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>403</v>
+        <v>334</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G229" s="1">
         <v>-6.69</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>69</v>
@@ -21255,19 +20742,19 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G230" s="1">
         <v>-6.69</v>
       </c>
       <c r="H230" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>69</v>
@@ -21329,19 +20816,19 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>405</v>
+        <v>336</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G231" s="1">
         <v>-6.69</v>
       </c>
       <c r="H231" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>69</v>
@@ -21403,19 +20890,19 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>406</v>
+        <v>337</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G232" s="1">
         <v>-6.69</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>69</v>
@@ -21454,7 +20941,7 @@
         <v>-48.639112220000001</v>
       </c>
       <c r="V232" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W232" s="1">
         <v>48.614676099999997</v>
@@ -21477,19 +20964,19 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>407</v>
+        <v>338</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G233" s="1">
         <v>-6.69</v>
       </c>
       <c r="H233" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>69</v>
@@ -21551,19 +21038,19 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>408</v>
+        <v>339</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G234" s="1">
         <v>-6.69</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>31</v>
@@ -21602,7 +21089,7 @@
         <v>-48.290700520000001</v>
       </c>
       <c r="V234" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W234" s="1">
         <v>52.356319069306899</v>
@@ -21625,19 +21112,19 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G235" s="1">
         <v>-6.69</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>69</v>
@@ -21699,19 +21186,19 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>410</v>
+        <v>341</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G236" s="1">
         <v>-6.69</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I236" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>69</v>
@@ -21750,7 +21237,7 @@
         <v>-48.338536859999998</v>
       </c>
       <c r="V236" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W236" s="1">
         <v>52.23608445</v>
@@ -21773,19 +21260,19 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>411</v>
+        <v>342</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G237" s="1">
         <v>-6.69</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I237" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>69</v>
@@ -21824,7 +21311,7 @@
         <v>-48.587140069999997</v>
       </c>
       <c r="V237" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W237" s="1">
         <v>49.255569090000002</v>
@@ -21847,19 +21334,19 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>412</v>
+        <v>343</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G238" s="1">
         <v>-6.69</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>69</v>
@@ -21921,19 +21408,19 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>413</v>
+        <v>344</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G239" s="1">
         <v>-6.69</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I239" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>69</v>
@@ -21995,19 +21482,19 @@
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>414</v>
+        <v>345</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>447</v>
+        <v>378</v>
       </c>
       <c r="G240" s="1">
         <v>-6.69</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>470</v>
+        <v>401</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>31</v>
@@ -22046,7 +21533,7 @@
         <v>-48.487871349999999</v>
       </c>
       <c r="V240" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W240" s="1">
         <v>51.7601637171717</v>
@@ -22069,19 +21556,19 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>415</v>
+        <v>346</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G241" s="1">
         <v>-6.58</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I241" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>69</v>
@@ -22120,7 +21607,7 @@
         <v>-47.472784900000001</v>
       </c>
       <c r="V241" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W241" s="1">
         <v>48.300108389999998</v>
@@ -22143,19 +21630,19 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>417</v>
+        <v>348</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G242" s="1">
         <v>-6.58</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I242" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>69</v>
@@ -22194,7 +21681,7 @@
         <v>-48.037712050000003</v>
       </c>
       <c r="V242" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W242" s="1">
         <v>47.981480490000003</v>
@@ -22217,19 +21704,19 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>418</v>
+        <v>349</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G243" s="1">
         <v>-6.58</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I243" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>69</v>
@@ -22291,19 +21778,19 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G244" s="1">
         <v>-6.58</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I244" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>31</v>
@@ -22342,7 +21829,7 @@
         <v>-47.993716399999997</v>
       </c>
       <c r="V244" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W244" s="1">
         <v>48.605644598130802</v>
@@ -22365,19 +21852,19 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>420</v>
+        <v>351</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G245" s="1">
         <v>-6.58</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>69</v>
@@ -22439,19 +21926,19 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
-        <v>421</v>
+        <v>352</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G246" s="1">
         <v>-6.58</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>31</v>
@@ -22490,7 +21977,7 @@
         <v>-48.148687629999998</v>
       </c>
       <c r="V246" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W246" s="1">
         <v>51.169367915789501</v>
@@ -22513,19 +22000,19 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>422</v>
+        <v>353</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G247" s="1">
         <v>-6.58</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>69</v>
@@ -22587,19 +22074,19 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>423</v>
+        <v>354</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G248" s="1">
         <v>-6.58</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>69</v>
@@ -22638,7 +22125,7 @@
         <v>-48.790133419999997</v>
       </c>
       <c r="V248" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W248" s="1">
         <v>47.48704627</v>
@@ -22661,19 +22148,19 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>424</v>
+        <v>355</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G249" s="1">
         <v>-6.58</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>69</v>
@@ -22735,19 +22222,19 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G250" s="1">
         <v>-6.58</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I250" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>69</v>
@@ -22809,19 +22296,19 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G251" s="1">
         <v>-6.58</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I251" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>69</v>
@@ -22860,7 +22347,7 @@
         <v>-47.559162180000001</v>
       </c>
       <c r="V251" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W251" s="1">
         <v>44.743134830000002</v>
@@ -22883,19 +22370,19 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>416</v>
+        <v>347</v>
       </c>
       <c r="G252" s="1">
         <v>-6.58</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>471</v>
+        <v>402</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>69</v>
@@ -22957,19 +22444,19 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>425</v>
+        <v>356</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G253" s="1">
         <v>-6.46</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I253" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>69</v>
@@ -23031,19 +22518,19 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>427</v>
+        <v>358</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G254" s="1">
         <v>-6.46</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I254" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>69</v>
@@ -23105,19 +22592,19 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>428</v>
+        <v>359</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G255" s="1">
         <v>-6.46</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I255" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>69</v>
@@ -23179,19 +22666,19 @@
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G256" s="1">
         <v>-6.46</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I256" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>31</v>
@@ -23230,7 +22717,7 @@
         <v>-47.88048191</v>
       </c>
       <c r="V256" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W256" s="1">
         <v>50.706830410526301</v>
@@ -23253,19 +22740,19 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>430</v>
+        <v>361</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G257" s="1">
         <v>-6.46</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>69</v>
@@ -23327,19 +22814,19 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>431</v>
+        <v>362</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G258" s="1">
         <v>-6.46</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I258" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>69</v>
@@ -23401,19 +22888,19 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>432</v>
+        <v>363</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G259" s="1">
         <v>-6.46</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I259" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>69</v>
@@ -23452,7 +22939,7 @@
         <v>-48.176358925000002</v>
       </c>
       <c r="V259" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="W259" s="1">
         <v>47.40370223</v>
@@ -23475,19 +22962,19 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G260" s="1">
         <v>-6.46</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I260" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>69</v>
@@ -23549,19 +23036,19 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G261" s="1">
         <v>-6.46</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>69</v>
@@ -23623,19 +23110,19 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G262" s="1">
         <v>-6.46</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>31</v>
@@ -23674,7 +23161,7 @@
         <v>-48.480856340000003</v>
       </c>
       <c r="V262" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="W262" s="1">
         <v>50.943966909090904</v>
@@ -23697,19 +23184,19 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>436</v>
+        <v>367</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G263" s="1">
         <v>-6.46</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I263" s="1" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>69</v>
@@ -23771,19 +23258,19 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>426</v>
+        <v>357</v>
       </c>
       <c r="G264" s="1">
         <v>-6.46</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>391</v>
+        <v>322</v>
       </c>
       <c r="I264" s="3" t="s">
-        <v>472</v>
+        <v>403</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>69</v>
